--- a/Results_and_analysis/Dependence_tensor_on_fisher_kappa_analysis/results_analysis_complete_fisher_kappa.xlsx
+++ b/Results_and_analysis/Dependence_tensor_on_fisher_kappa_analysis/results_analysis_complete_fisher_kappa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Plocha\Bachelor_thesis\Results_and_analysis\Dependence_tensor_on_fisher_kappa_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AEFF96-3DAE-43C2-B73F-AA58F15B90EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE2D8E5-1B30-4F2C-94BD-960FFC92A94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5359,14 +5359,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>509133</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50511</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>255133</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>161636</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5660,7 +5660,7 @@
   <dimension ref="A1:X2186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z27" sqref="Z27"/>
+      <selection activeCell="AB34" sqref="AB34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Results_and_analysis/Dependence_tensor_on_fisher_kappa_analysis/results_analysis_complete_fisher_kappa.xlsx
+++ b/Results_and_analysis/Dependence_tensor_on_fisher_kappa_analysis/results_analysis_complete_fisher_kappa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Plocha\Bachelor_thesis\Results_and_analysis\Dependence_tensor_on_fisher_kappa_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Plocha\Bachelor_thesis\Python_scripts\Results_and_analysis\Dependence_tensor_on_fisher_kappa_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE2D8E5-1B30-4F2C-94BD-960FFC92A94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A73BF6-3A5F-44E6-9776-1A22D2FBD633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5660,7 +5660,7 @@
   <dimension ref="A1:X2186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB34" sqref="AB34"/>
+      <selection activeCell="Y65" sqref="Y65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Results_and_analysis/Dependence_tensor_on_fisher_kappa_analysis/results_analysis_complete_fisher_kappa.xlsx
+++ b/Results_and_analysis/Dependence_tensor_on_fisher_kappa_analysis/results_analysis_complete_fisher_kappa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Plocha\Bachelor_thesis\Python_scripts\Results_and_analysis\Dependence_tensor_on_fisher_kappa_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A73BF6-3A5F-44E6-9776-1A22D2FBD633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696D6440-554A-4C9C-856F-3BC1748FEDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>μ</t>
   </si>
   <si>
@@ -46,30 +43,6 @@
   </si>
   <si>
     <t>σ/μ [%]</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>C9</t>
   </si>
   <si>
     <t>COEFFICIENTS OF EFFECTIVE ELASTIC TENSOR</t>
@@ -85,6 +58,33 @@
   </si>
   <si>
     <t xml:space="preserve">COEFFICIENTS OF EFFECTIVE ELASTIC TENSOR </t>
+  </si>
+  <si>
+    <t>C1111</t>
+  </si>
+  <si>
+    <t>C2211</t>
+  </si>
+  <si>
+    <t>C1211</t>
+  </si>
+  <si>
+    <t>C1122</t>
+  </si>
+  <si>
+    <t>C2222</t>
+  </si>
+  <si>
+    <t>C1222</t>
+  </si>
+  <si>
+    <t>C1112</t>
+  </si>
+  <si>
+    <t>C2212</t>
+  </si>
+  <si>
+    <t>C1212</t>
   </si>
 </sst>
 </file>
@@ -155,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -170,15 +170,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -275,62 +266,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -548,7 +585,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>C1</c:v>
+            <c:strRef>
+              <c:f>List1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1111</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -717,7 +762,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>C2</c:v>
+            <c:strRef>
+              <c:f>List1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2211</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -886,7 +939,15 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>C3</c:v>
+            <c:strRef>
+              <c:f>List1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1211</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1055,7 +1116,15 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>C4</c:v>
+            <c:strRef>
+              <c:f>List1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1122</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1224,7 +1293,15 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>C5</c:v>
+            <c:strRef>
+              <c:f>List1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1393,7 +1470,15 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>C6</c:v>
+            <c:strRef>
+              <c:f>List1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1562,7 +1647,15 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>C7</c:v>
+            <c:strRef>
+              <c:f>List1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1112</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1737,7 +1830,15 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>C8</c:v>
+            <c:strRef>
+              <c:f>List1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2212</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1912,7 +2013,15 @@
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:tx>
-            <c:v>C9</c:v>
+            <c:strRef>
+              <c:f>List1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1212</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2135,8 +2244,37 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="cs-CZ"/>
-                  <a:t>Kappa</a:t>
+                  <a:rPr lang="cs-CZ" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0" dirty="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:srgbClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Hodnota koncentrace (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="cs-CZ" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0" dirty="0" err="1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:srgbClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Fisherovo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="cs-CZ" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0" dirty="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:srgbClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> kappa) [-]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2173,7 +2311,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2444,17 +2582,14 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:r>
-              <a:rPr lang="cs-CZ" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Graf závislost hodnot efektivního elastického tenzoru na Fisherově kappa - v rozsahu od 0 do 1000</a:t>
-            </a:r>
+            <a:endParaRPr lang="cs-CZ" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2497,7 +2632,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>C1</c:v>
+            <c:strRef>
+              <c:f>List1!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1111</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2525,7 +2668,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>List1!$L$3:$L$18</c:f>
+              <c:f>List1!$L$5:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2582,7 +2725,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>List1!$M$3:$M$18</c:f>
+              <c:f>List1!$M$5:$M$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2648,7 +2791,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>C2</c:v>
+            <c:strRef>
+              <c:f>List1!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2211</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2676,7 +2827,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>List1!$L$3:$L$18</c:f>
+              <c:f>List1!$L$5:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2733,7 +2884,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>List1!$N$3:$N$18</c:f>
+              <c:f>List1!$N$5:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2799,7 +2950,15 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>C3</c:v>
+            <c:strRef>
+              <c:f>List1!$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1211</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2827,7 +2986,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>List1!$L$3:$L$18</c:f>
+              <c:f>List1!$L$5:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2884,7 +3043,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>List1!$O$3:$O$18</c:f>
+              <c:f>List1!$O$5:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2950,7 +3109,15 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>C4</c:v>
+            <c:strRef>
+              <c:f>List1!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1122</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2978,7 +3145,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>List1!$L$3:$L$18</c:f>
+              <c:f>List1!$L$5:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3035,7 +3202,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>List1!$P$3:$P$18</c:f>
+              <c:f>List1!$P$5:$P$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3101,7 +3268,15 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>C5</c:v>
+            <c:strRef>
+              <c:f>List1!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3129,7 +3304,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>List1!$L$3:$L$18</c:f>
+              <c:f>List1!$L$5:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3186,7 +3361,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>List1!$Q$3:$Q$18</c:f>
+              <c:f>List1!$Q$5:$Q$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3252,7 +3427,15 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>C6</c:v>
+            <c:strRef>
+              <c:f>List1!$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3280,7 +3463,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>List1!$L$3:$L$18</c:f>
+              <c:f>List1!$L$5:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3337,7 +3520,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>List1!$R$3:$R$18</c:f>
+              <c:f>List1!$R$5:$R$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3403,7 +3586,15 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>C7</c:v>
+            <c:strRef>
+              <c:f>List1!$S$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1112</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3437,7 +3628,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>List1!$L$3:$L$18</c:f>
+              <c:f>List1!$L$5:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3494,7 +3685,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>List1!$S$3:$S$18</c:f>
+              <c:f>List1!$S$5:$S$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3560,7 +3751,15 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>C8</c:v>
+            <c:strRef>
+              <c:f>List1!$T$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2212</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3594,7 +3793,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>List1!$L$3:$L$18</c:f>
+              <c:f>List1!$L$5:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3651,7 +3850,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>List1!$T$3:$T$18</c:f>
+              <c:f>List1!$T$5:$T$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3717,7 +3916,15 @@
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:tx>
-            <c:v>C9</c:v>
+            <c:strRef>
+              <c:f>List1!$U$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1212</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3751,7 +3958,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>List1!$L$3:$L$18</c:f>
+              <c:f>List1!$L$5:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3808,7 +4015,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>List1!$U$3:$U$18</c:f>
+              <c:f>List1!$U$5:$U$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3923,8 +4130,37 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="cs-CZ"/>
-                  <a:t>Kappa</a:t>
+                  <a:rPr lang="cs-CZ" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0" dirty="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:srgbClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Hodnota koncentrace (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="cs-CZ" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0" dirty="0" err="1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:srgbClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Fisherovo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="cs-CZ" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0" dirty="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:srgbClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> kappa) [-]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3961,7 +4197,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4041,14 +4277,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="cs-CZ"/>
-                  <a:t>Hodnoty</a:t>
+                  <a:rPr lang="cs-CZ" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0" dirty="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:srgbClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Hodnoty tenzoru [Pa]</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="cs-CZ" baseline="0"/>
-                  <a:t> koeficientů</a:t>
-                </a:r>
-                <a:endParaRPr lang="cs-CZ"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5358,15 +5596,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>509133</xdr:colOff>
+      <xdr:colOff>547232</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>50511</xdr:rowOff>
+      <xdr:rowOff>88611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>255133</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>161636</xdr:rowOff>
+      <xdr:colOff>584199</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>9236</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5659,8 +5897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X2186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y65" sqref="Y65"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5677,108 +5915,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="L1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
+      <c r="A1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="20"/>
       <c r="V1" s="9"/>
       <c r="W1" s="9"/>
       <c r="X1" s="9"/>
     </row>
     <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="20" t="s">
+      <c r="I2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>11</v>
+      <c r="J2" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7">
         <v>6.7</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="1">
         <v>4144.7498901642302</v>
       </c>
       <c r="C3" s="1">
@@ -5802,48 +5996,32 @@
       <c r="I3" s="1">
         <v>-235.459579138533</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="23">
         <v>1549.8520176378599</v>
       </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="12">
-        <v>5550.2933433039098</v>
-      </c>
-      <c r="N3" s="1">
-        <v>71.735785704358406</v>
-      </c>
-      <c r="O3" s="1">
-        <v>-356.03027805498101</v>
-      </c>
-      <c r="P3" s="1">
-        <v>70.397545846731603</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>5676.66213163877</v>
-      </c>
-      <c r="R3" s="1">
-        <v>-205.864151806168</v>
-      </c>
-      <c r="S3" s="1">
-        <v>-657.95770898175897</v>
-      </c>
-      <c r="T3" s="1">
-        <v>-528.84723914423796</v>
-      </c>
-      <c r="U3" s="1">
-        <v>2229.9319698176701</v>
-      </c>
+      <c r="L3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="20"/>
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="11">
         <v>8.6999999999999993</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>5810.1470946996596</v>
       </c>
       <c r="C4" s="2">
@@ -5867,38 +6045,38 @@
       <c r="I4" s="2">
         <v>-736.856676108594</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>2416.5709987299701</v>
       </c>
-      <c r="L4" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="M4">
-        <v>5741.3951486083597</v>
-      </c>
-      <c r="N4" s="2">
-        <v>431.46530227477098</v>
-      </c>
-      <c r="O4" s="2">
-        <v>435.449893542859</v>
-      </c>
-      <c r="P4" s="2">
-        <v>431.00402053970299</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>6053.7925850537904</v>
-      </c>
-      <c r="R4" s="2">
-        <v>277.56316130570099</v>
-      </c>
-      <c r="S4" s="2">
-        <v>283.09386199364502</v>
-      </c>
-      <c r="T4" s="2">
-        <v>80.028129202501304</v>
-      </c>
-      <c r="U4" s="2">
-        <v>2559.8952131676401</v>
+      <c r="L4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="U4" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="V4" s="10"/>
       <c r="W4" s="10"/>
@@ -5908,7 +6086,7 @@
       <c r="A5" s="7">
         <v>10.7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>4371.1423578088898</v>
       </c>
       <c r="C5" s="2">
@@ -5932,38 +6110,38 @@
       <c r="I5" s="2">
         <v>98.941267624745393</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>1881.12199081072</v>
       </c>
       <c r="L5" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="M5">
-        <v>5611.9974274231099</v>
-      </c>
-      <c r="N5" s="2">
-        <v>54.689419617729399</v>
-      </c>
-      <c r="O5" s="2">
-        <v>-372.13471613791802</v>
-      </c>
-      <c r="P5" s="2">
-        <v>54.570007096275098</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>5276.2338049679402</v>
-      </c>
-      <c r="R5" s="2">
-        <v>-638.11378349356198</v>
-      </c>
-      <c r="S5" s="2">
-        <v>-602.83418414074004</v>
-      </c>
-      <c r="T5" s="2">
-        <v>-878.33297297089598</v>
-      </c>
-      <c r="U5" s="2">
-        <v>2530.6751514491398</v>
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>5550.2933433039098</v>
+      </c>
+      <c r="N5" s="1">
+        <v>71.735785704358406</v>
+      </c>
+      <c r="O5" s="1">
+        <v>-356.03027805498101</v>
+      </c>
+      <c r="P5" s="1">
+        <v>70.397545846731603</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>5676.66213163877</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-205.864151806168</v>
+      </c>
+      <c r="S5" s="1">
+        <v>-657.95770898175897</v>
+      </c>
+      <c r="T5" s="1">
+        <v>-528.84723914423796</v>
+      </c>
+      <c r="U5" s="23">
+        <v>2229.9319698176701</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
@@ -5973,7 +6151,7 @@
       <c r="A6" s="11">
         <v>12.7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>6819.6416693412302</v>
       </c>
       <c r="C6" s="2">
@@ -5997,38 +6175,38 @@
       <c r="I6" s="2">
         <v>-475.56522926487497</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>2097.6456364752898</v>
       </c>
       <c r="L6" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="M6">
-        <v>7810.5133811648902</v>
+        <v>0.1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>5741.3951486083597</v>
       </c>
       <c r="N6" s="2">
-        <v>536.830239546195</v>
+        <v>431.46530227477098</v>
       </c>
       <c r="O6" s="2">
-        <v>-354.64262041735299</v>
+        <v>435.449893542859</v>
       </c>
       <c r="P6" s="2">
-        <v>186.30615400799499</v>
+        <v>431.00402053970299</v>
       </c>
       <c r="Q6" s="2">
-        <v>5918.0331675507896</v>
+        <v>6053.7925850537904</v>
       </c>
       <c r="R6" s="2">
-        <v>-148.696537388672</v>
+        <v>277.56316130570099</v>
       </c>
       <c r="S6" s="2">
-        <v>-455.71884057980901</v>
+        <v>283.09386199364502</v>
       </c>
       <c r="T6" s="2">
-        <v>-366.50524040430099</v>
-      </c>
-      <c r="U6" s="2">
-        <v>2769.6656385108399</v>
+        <v>80.028129202501304</v>
+      </c>
+      <c r="U6" s="3">
+        <v>2559.8952131676401</v>
       </c>
       <c r="V6" s="10"/>
       <c r="W6" s="10"/>
@@ -6038,7 +6216,7 @@
       <c r="A7" s="7">
         <v>14.7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>4345.79294465567</v>
       </c>
       <c r="C7" s="2">
@@ -6062,38 +6240,38 @@
       <c r="I7" s="2">
         <v>215.48604377691899</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <v>1484.9529248530901</v>
       </c>
       <c r="L7" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="M7">
-        <v>5462.7882486845901</v>
+        <v>0.2</v>
+      </c>
+      <c r="M7" s="2">
+        <v>5611.9974274231099</v>
       </c>
       <c r="N7" s="2">
-        <v>359.073924453384</v>
+        <v>54.689419617729399</v>
       </c>
       <c r="O7" s="2">
-        <v>564.95035547478699</v>
+        <v>-372.13471613791802</v>
       </c>
       <c r="P7" s="2">
-        <v>304.661262092897</v>
+        <v>54.570007096275098</v>
       </c>
       <c r="Q7" s="2">
-        <v>4857.8882562644103</v>
+        <v>5276.2338049679402</v>
       </c>
       <c r="R7" s="2">
-        <v>633.46609501844102</v>
+        <v>-638.11378349356198</v>
       </c>
       <c r="S7" s="2">
-        <v>463.924621300436</v>
+        <v>-602.83418414074004</v>
       </c>
       <c r="T7" s="2">
-        <v>577.38234687503405</v>
-      </c>
-      <c r="U7" s="2">
-        <v>2266.7695783557101</v>
+        <v>-878.33297297089598</v>
+      </c>
+      <c r="U7" s="3">
+        <v>2530.6751514491398</v>
       </c>
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
@@ -6103,7 +6281,7 @@
       <c r="A8" s="11">
         <v>16.7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>6003.5460328070603</v>
       </c>
       <c r="C8" s="2">
@@ -6127,38 +6305,38 @@
       <c r="I8" s="2">
         <v>-589.91262809260695</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <v>2461.1820712621402</v>
       </c>
       <c r="L8" s="11">
-        <v>1.6</v>
-      </c>
-      <c r="M8">
-        <v>5777.6554283038504</v>
+        <v>0.4</v>
+      </c>
+      <c r="M8" s="2">
+        <v>7810.5133811648902</v>
       </c>
       <c r="N8" s="2">
-        <v>170.82326839721901</v>
+        <v>536.830239546195</v>
       </c>
       <c r="O8" s="2">
-        <v>292.88270859173002</v>
+        <v>-354.64262041735299</v>
       </c>
       <c r="P8" s="2">
-        <v>170.07547093375399</v>
+        <v>186.30615400799499</v>
       </c>
       <c r="Q8" s="2">
-        <v>6007.81977909733</v>
+        <v>5918.0331675507896</v>
       </c>
       <c r="R8" s="2">
-        <v>356.64696608037099</v>
+        <v>-148.696537388672</v>
       </c>
       <c r="S8" s="2">
-        <v>75.837076155494302</v>
+        <v>-455.71884057980901</v>
       </c>
       <c r="T8" s="2">
-        <v>215.87674336453301</v>
-      </c>
-      <c r="U8" s="2">
-        <v>2261.7135938413999</v>
+        <v>-366.50524040430099</v>
+      </c>
+      <c r="U8" s="3">
+        <v>2769.6656385108399</v>
       </c>
       <c r="V8" s="10"/>
       <c r="W8" s="10"/>
@@ -6168,7 +6346,7 @@
       <c r="A9" s="7">
         <v>18.7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>6227.2099261019303</v>
       </c>
       <c r="C9" s="2">
@@ -6192,38 +6370,38 @@
       <c r="I9" s="2">
         <v>-81.275366456826603</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="3">
         <v>2357.9324966322201</v>
       </c>
       <c r="L9" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="M9">
-        <v>5104.0290492859003</v>
+        <v>0.8</v>
+      </c>
+      <c r="M9" s="2">
+        <v>5462.7882486845901</v>
       </c>
       <c r="N9" s="2">
-        <v>189.437588704154</v>
+        <v>359.073924453384</v>
       </c>
       <c r="O9" s="2">
-        <v>-131.95968072937299</v>
+        <v>564.95035547478699</v>
       </c>
       <c r="P9" s="2">
-        <v>191.037387713882</v>
+        <v>304.661262092897</v>
       </c>
       <c r="Q9" s="2">
-        <v>5359.3781173205698</v>
+        <v>4857.8882562644103</v>
       </c>
       <c r="R9" s="2">
-        <v>-368.25286117266802</v>
+        <v>633.46609501844102</v>
       </c>
       <c r="S9" s="2">
-        <v>-277.57998104737402</v>
+        <v>463.924621300436</v>
       </c>
       <c r="T9" s="2">
-        <v>-565.12874616988802</v>
-      </c>
-      <c r="U9" s="2">
-        <v>2087.7667150911302</v>
+        <v>577.38234687503405</v>
+      </c>
+      <c r="U9" s="3">
+        <v>2266.7695783557101</v>
       </c>
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
@@ -6233,7 +6411,7 @@
       <c r="A10" s="11">
         <v>20.7</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>4774.4961755569302</v>
       </c>
       <c r="C10" s="2">
@@ -6257,38 +6435,38 @@
       <c r="I10" s="2">
         <v>334.00244221180998</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="3">
         <v>1881.70143317679</v>
       </c>
       <c r="L10" s="11">
-        <v>6.4</v>
-      </c>
-      <c r="M10">
-        <v>4729.9109219458296</v>
+        <v>1.6</v>
+      </c>
+      <c r="M10" s="2">
+        <v>5777.6554283038504</v>
       </c>
       <c r="N10" s="2">
-        <v>45.783609098090103</v>
+        <v>170.82326839721901</v>
       </c>
       <c r="O10" s="2">
-        <v>50.027765321285997</v>
+        <v>292.88270859173002</v>
       </c>
       <c r="P10" s="2">
-        <v>46.627242251141901</v>
+        <v>170.07547093375399</v>
       </c>
       <c r="Q10" s="2">
-        <v>4912.5584294678101</v>
+        <v>6007.81977909733</v>
       </c>
       <c r="R10" s="2">
-        <v>95.156512897598603</v>
+        <v>356.64696608037099</v>
       </c>
       <c r="S10" s="2">
-        <v>-150.85659965263201</v>
+        <v>75.837076155494302</v>
       </c>
       <c r="T10" s="2">
-        <v>-133.34094212909301</v>
-      </c>
-      <c r="U10" s="2">
-        <v>1929.41256888469</v>
+        <v>215.87674336453301</v>
+      </c>
+      <c r="U10" s="3">
+        <v>2261.7135938413999</v>
       </c>
       <c r="V10" s="10"/>
       <c r="W10" s="10"/>
@@ -6298,7 +6476,7 @@
       <c r="A11" s="7">
         <v>22.7</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>6677.5623343840698</v>
       </c>
       <c r="C11" s="2">
@@ -6322,38 +6500,38 @@
       <c r="I11" s="2">
         <v>535.68905901216203</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="3">
         <v>2622.8707713910899</v>
       </c>
       <c r="L11" s="7">
-        <v>12.8</v>
-      </c>
-      <c r="M11">
-        <v>6252.58284915274</v>
+        <v>3.2</v>
+      </c>
+      <c r="M11" s="2">
+        <v>5104.0290492859003</v>
       </c>
       <c r="N11" s="2">
-        <v>159.22324430713701</v>
+        <v>189.437588704154</v>
       </c>
       <c r="O11" s="2">
-        <v>-325.159334808116</v>
+        <v>-131.95968072937299</v>
       </c>
       <c r="P11" s="2">
-        <v>509.464428419792</v>
+        <v>191.037387713882</v>
       </c>
       <c r="Q11" s="2">
-        <v>6366.4255802377102</v>
+        <v>5359.3781173205698</v>
       </c>
       <c r="R11" s="2">
-        <v>130.412574413698</v>
+        <v>-368.25286117266802</v>
       </c>
       <c r="S11" s="2">
-        <v>-483.49774042313601</v>
+        <v>-277.57998104737402</v>
       </c>
       <c r="T11" s="2">
-        <v>-6.9715602598802198</v>
-      </c>
-      <c r="U11" s="2">
-        <v>2851.8375267963802</v>
+        <v>-565.12874616988802</v>
+      </c>
+      <c r="U11" s="3">
+        <v>2087.7667150911302</v>
       </c>
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
@@ -6363,7 +6541,7 @@
       <c r="A12" s="11">
         <v>24.7</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>5158.4758047399901</v>
       </c>
       <c r="C12" s="2">
@@ -6387,45 +6565,45 @@
       <c r="I12" s="2">
         <v>1.3839945036238701</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="3">
         <v>2005.4429984465401</v>
       </c>
       <c r="L12" s="11">
-        <v>25.6</v>
-      </c>
-      <c r="M12">
-        <v>3869.21105570794</v>
+        <v>6.4</v>
+      </c>
+      <c r="M12" s="2">
+        <v>4729.9109219458296</v>
       </c>
       <c r="N12" s="2">
-        <v>248.90312706726999</v>
+        <v>45.783609098090103</v>
       </c>
       <c r="O12" s="2">
-        <v>142.47505597266601</v>
+        <v>50.027765321285997</v>
       </c>
       <c r="P12" s="2">
-        <v>249.322263267154</v>
+        <v>46.627242251141901</v>
       </c>
       <c r="Q12" s="2">
-        <v>4753.7982254402305</v>
+        <v>4912.5584294678101</v>
       </c>
       <c r="R12" s="2">
-        <v>339.55492224632798</v>
+        <v>95.156512897598603</v>
       </c>
       <c r="S12" s="2">
-        <v>73.050854936954494</v>
+        <v>-150.85659965263201</v>
       </c>
       <c r="T12" s="2">
-        <v>301.70953510678999</v>
-      </c>
-      <c r="U12" s="2">
-        <v>1496.52666596364</v>
+        <v>-133.34094212909301</v>
+      </c>
+      <c r="U12" s="3">
+        <v>1929.41256888469</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>26.7</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>6587.2307983950004</v>
       </c>
       <c r="C13" s="2">
@@ -6449,45 +6627,45 @@
       <c r="I13" s="2">
         <v>186.13709147681899</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="3">
         <v>2542.5811813821801</v>
       </c>
       <c r="L13" s="7">
-        <v>51.2</v>
-      </c>
-      <c r="M13">
-        <v>5382.0514055563899</v>
+        <v>12.8</v>
+      </c>
+      <c r="M13" s="2">
+        <v>6252.58284915274</v>
       </c>
       <c r="N13" s="2">
-        <v>224.12558042052601</v>
+        <v>159.22324430713701</v>
       </c>
       <c r="O13" s="2">
-        <v>133.33879600346</v>
+        <v>-325.159334808116</v>
       </c>
       <c r="P13" s="2">
-        <v>223.517812699014</v>
+        <v>509.464428419792</v>
       </c>
       <c r="Q13" s="2">
-        <v>4983.9888741372197</v>
+        <v>6366.4255802377102</v>
       </c>
       <c r="R13" s="2">
-        <v>63.725564756854901</v>
+        <v>130.412574413698</v>
       </c>
       <c r="S13" s="2">
-        <v>-35.708860376222901</v>
+        <v>-483.49774042313601</v>
       </c>
       <c r="T13" s="2">
-        <v>-57.9437277689997</v>
-      </c>
-      <c r="U13" s="2">
-        <v>2160.7192727215302</v>
+        <v>-6.9715602598802198</v>
+      </c>
+      <c r="U13" s="3">
+        <v>2851.8375267963802</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>28.7</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>4627.1043912045398</v>
       </c>
       <c r="C14" s="2">
@@ -6511,45 +6689,45 @@
       <c r="I14" s="2">
         <v>157.91553914096099</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="3">
         <v>1924.8835247617999</v>
       </c>
       <c r="L14" s="11">
-        <v>102.4</v>
-      </c>
-      <c r="M14">
-        <v>5075.0111451590401</v>
+        <v>25.6</v>
+      </c>
+      <c r="M14" s="2">
+        <v>3869.21105570794</v>
       </c>
       <c r="N14" s="2">
-        <v>153.28075469887</v>
+        <v>248.90312706726999</v>
       </c>
       <c r="O14" s="2">
-        <v>79.841867754428193</v>
+        <v>142.47505597266601</v>
       </c>
       <c r="P14" s="2">
-        <v>157.21261207612901</v>
+        <v>249.322263267154</v>
       </c>
       <c r="Q14" s="2">
-        <v>6250.8128434650998</v>
+        <v>4753.7982254402305</v>
       </c>
       <c r="R14" s="2">
-        <v>399.72006594884698</v>
+        <v>339.55492224632798</v>
       </c>
       <c r="S14" s="2">
-        <v>-144.915669728073</v>
+        <v>73.050854936954494</v>
       </c>
       <c r="T14" s="2">
-        <v>196.40973562475401</v>
-      </c>
-      <c r="U14" s="2">
-        <v>2088.9111658481402</v>
+        <v>301.70953510678999</v>
+      </c>
+      <c r="U14" s="3">
+        <v>1496.52666596364</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>30.7</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>5117.4542052851803</v>
       </c>
       <c r="C15" s="2">
@@ -6573,45 +6751,45 @@
       <c r="I15" s="2">
         <v>-77.562540060111203</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="3">
         <v>2159.6883788211799</v>
       </c>
       <c r="L15" s="7">
-        <v>204.8</v>
-      </c>
-      <c r="M15">
-        <v>3642.45248676439</v>
+        <v>51.2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>5382.0514055563899</v>
       </c>
       <c r="N15" s="2">
-        <v>140.77383182000199</v>
+        <v>224.12558042052601</v>
       </c>
       <c r="O15" s="2">
-        <v>320.23051064303201</v>
+        <v>133.33879600346</v>
       </c>
       <c r="P15" s="2">
-        <v>144.57470204750601</v>
+        <v>223.517812699014</v>
       </c>
       <c r="Q15" s="2">
-        <v>5258.5564432289902</v>
+        <v>4983.9888741372197</v>
       </c>
       <c r="R15" s="2">
-        <v>467.07084222270203</v>
+        <v>63.725564756854901</v>
       </c>
       <c r="S15" s="2">
-        <v>309.664903197775</v>
+        <v>-35.708860376222901</v>
       </c>
       <c r="T15" s="2">
-        <v>432.40333217318198</v>
-      </c>
-      <c r="U15" s="2">
-        <v>1526.5335511292899</v>
+        <v>-57.9437277689997</v>
+      </c>
+      <c r="U15" s="3">
+        <v>2160.7192727215302</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>32.700000000000003</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>4015.9814952028801</v>
       </c>
       <c r="C16" s="2">
@@ -6635,45 +6813,45 @@
       <c r="I16" s="2">
         <v>183.802558539693</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="3">
         <v>1330.0972855084301</v>
       </c>
       <c r="L16" s="11">
-        <v>409.6</v>
-      </c>
-      <c r="M16">
-        <v>5172.6562295780104</v>
+        <v>102.4</v>
+      </c>
+      <c r="M16" s="2">
+        <v>5075.0111451590401</v>
       </c>
       <c r="N16" s="2">
-        <v>233.44025031562899</v>
+        <v>153.28075469887</v>
       </c>
       <c r="O16" s="2">
-        <v>477.28419518977501</v>
+        <v>79.841867754428193</v>
       </c>
       <c r="P16" s="2">
-        <v>247.638421929206</v>
+        <v>157.21261207612901</v>
       </c>
       <c r="Q16" s="2">
-        <v>11006.0260012901</v>
+        <v>6250.8128434650998</v>
       </c>
       <c r="R16" s="2">
-        <v>717.85084081145806</v>
+        <v>399.72006594884698</v>
       </c>
       <c r="S16" s="2">
-        <v>360.53405850858098</v>
+        <v>-144.915669728073</v>
       </c>
       <c r="T16" s="2">
-        <v>587.01087402870701</v>
-      </c>
-      <c r="U16" s="2">
-        <v>2698.5857882877399</v>
+        <v>196.40973562475401</v>
+      </c>
+      <c r="U16" s="3">
+        <v>2088.9111658481402</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>34.700000000000003</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>5505.9434134858802</v>
       </c>
       <c r="C17" s="2">
@@ -6697,45 +6875,45 @@
       <c r="I17" s="2">
         <v>59.297693474677899</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="3">
         <v>2920.11843061528</v>
       </c>
       <c r="L17" s="7">
-        <v>819.2</v>
-      </c>
-      <c r="M17">
-        <v>4092.16105691646</v>
+        <v>204.8</v>
+      </c>
+      <c r="M17" s="2">
+        <v>3642.45248676439</v>
       </c>
       <c r="N17" s="2">
-        <v>1003.90718345763</v>
+        <v>140.77383182000199</v>
       </c>
       <c r="O17" s="2">
-        <v>1196.1799111522901</v>
+        <v>320.23051064303201</v>
       </c>
       <c r="P17" s="2">
-        <v>1002.9894494485</v>
+        <v>144.57470204750601</v>
       </c>
       <c r="Q17" s="2">
-        <v>47485.778994328502</v>
+        <v>5258.5564432289902</v>
       </c>
       <c r="R17" s="2">
-        <v>7016.5391362313103</v>
+        <v>467.07084222270203</v>
       </c>
       <c r="S17" s="2">
-        <v>1195.4665509663801</v>
+        <v>309.664903197775</v>
       </c>
       <c r="T17" s="2">
-        <v>7016.7180719260796</v>
-      </c>
-      <c r="U17" s="2">
-        <v>4988.8712612577401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>432.40333217318198</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1526.5335511292899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>36.700000000000003</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>5503.3780190009902</v>
       </c>
       <c r="C18" s="2">
@@ -6759,45 +6937,45 @@
       <c r="I18" s="2">
         <v>-3.27065268780331</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="3">
         <v>2275.42524389765</v>
       </c>
       <c r="L18" s="11">
-        <v>1000</v>
-      </c>
-      <c r="M18">
-        <v>4941.3625779550803</v>
+        <v>409.6</v>
+      </c>
+      <c r="M18" s="2">
+        <v>5172.6562295780104</v>
       </c>
       <c r="N18" s="2">
-        <v>991.751875252741</v>
+        <v>233.44025031562899</v>
       </c>
       <c r="O18" s="2">
-        <v>1159.68486061198</v>
+        <v>477.28419518977501</v>
       </c>
       <c r="P18" s="2">
-        <v>990.74467759009497</v>
+        <v>247.638421929206</v>
       </c>
       <c r="Q18" s="2">
-        <v>47640.811699598897</v>
+        <v>11006.0260012901</v>
       </c>
       <c r="R18" s="2">
-        <v>6585.3305067266901</v>
+        <v>717.85084081145806</v>
       </c>
       <c r="S18" s="2">
-        <v>1157.56509462384</v>
+        <v>360.53405850858098</v>
       </c>
       <c r="T18" s="2">
-        <v>6583.7498831939702</v>
-      </c>
-      <c r="U18" s="2">
-        <v>6215.6797552089101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>587.01087402870701</v>
+      </c>
+      <c r="U18" s="3">
+        <v>2698.5857882877399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>38.700000000000003</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>4496.2884968176504</v>
       </c>
       <c r="C19" s="2">
@@ -6821,54 +6999,45 @@
       <c r="I19" s="2">
         <v>694.12408305154395</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="3">
         <v>2145.5763782598201</v>
       </c>
-      <c r="L19" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M19" s="13">
-        <f t="shared" ref="M19:U19" ca="1" si="0">AVERAGEA(M3:M21)</f>
-        <v>5355.6160345521321</v>
-      </c>
-      <c r="N19" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>199.37942471409355</v>
-      </c>
-      <c r="O19" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>48.001596429836503</v>
-      </c>
-      <c r="P19" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>222.24508828625935</v>
-      </c>
-      <c r="Q19" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>5197.5552393533599</v>
-      </c>
-      <c r="R19" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>144.06891908317252</v>
-      </c>
-      <c r="S19" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-133.91804222248754</v>
-      </c>
-      <c r="T19" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-26.702936377996199</v>
-      </c>
-      <c r="U19" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2119.5042115251395</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L19" s="7">
+        <v>819.2</v>
+      </c>
+      <c r="M19" s="2">
+        <v>4092.16105691646</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1003.90718345763</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1196.1799111522901</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1002.9894494485</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>47485.778994328502</v>
+      </c>
+      <c r="R19" s="2">
+        <v>7016.5391362313103</v>
+      </c>
+      <c r="S19" s="2">
+        <v>1195.4665509663801</v>
+      </c>
+      <c r="T19" s="2">
+        <v>7016.7180719260796</v>
+      </c>
+      <c r="U19" s="3">
+        <v>4988.8712612577401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11">
         <v>40.700000000000003</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>3914.0776585383101</v>
       </c>
       <c r="C20" s="2">
@@ -6892,54 +7061,45 @@
       <c r="I20" s="2">
         <v>-52.954039398038297</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="3">
         <v>1473.01836565997</v>
       </c>
-      <c r="L20" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M20" s="13">
-        <f t="shared" ref="M20:U20" ca="1" si="1">_xlfn.STDEV.P(M3:M21)</f>
-        <v>903.19125373993563</v>
-      </c>
-      <c r="N20" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>143.13024305394367</v>
-      </c>
-      <c r="O20" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>368.54465836268383</v>
-      </c>
-      <c r="P20" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>106.4061792454192</v>
-      </c>
-      <c r="Q20" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>824.47722805632259</v>
-      </c>
-      <c r="R20" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>269.00231654570388</v>
-      </c>
-      <c r="S20" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>413.27257738560758</v>
-      </c>
-      <c r="T20" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>328.38731012326684</v>
-      </c>
-      <c r="U20" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>423.98299115702901</v>
+      <c r="L20" s="11">
+        <v>1000</v>
+      </c>
+      <c r="M20" s="2">
+        <v>4941.3625779550803</v>
+      </c>
+      <c r="N20" s="2">
+        <v>991.751875252741</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1159.68486061198</v>
+      </c>
+      <c r="P20" s="2">
+        <v>990.74467759009497</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>47640.811699598897</v>
+      </c>
+      <c r="R20" s="2">
+        <v>6585.3305067266901</v>
+      </c>
+      <c r="S20" s="2">
+        <v>1157.56509462384</v>
+      </c>
+      <c r="T20" s="2">
+        <v>6583.7498831939702</v>
+      </c>
+      <c r="U20" s="3">
+        <v>6215.6797552089101</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7">
         <v>42.7</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>5358.9790809411998</v>
       </c>
       <c r="C21" s="2">
@@ -6963,136 +7123,214 @@
       <c r="I21" s="2">
         <v>180.600370389484</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="3">
         <v>2209.5516878624398</v>
       </c>
-      <c r="L21" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="14">
-        <f ca="1">M20/M19</f>
+      <c r="L21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" ref="M21:U21" ca="1" si="0">AVERAGEA(M5:M23)</f>
+        <v>5355.6160345521321</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>199.37942471409355</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>48.001596429836503</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>222.24508828625935</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5197.5552393533599</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>144.06891908317252</v>
+      </c>
+      <c r="S21" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-133.91804222248754</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-26.702936377996199</v>
+      </c>
+      <c r="U21" s="24">
+        <f t="shared" ca="1" si="0"/>
+        <v>2119.5042115251395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" ref="B22:J22" si="1">AVERAGEA(B3:B21)</f>
+        <v>5234.6948310069092</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="1"/>
+        <v>178.59891568319722</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="1"/>
+        <v>59.152438708214504</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="1"/>
+        <v>198.39060014556333</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="1"/>
+        <v>5323.188821003977</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="1"/>
+        <v>186.44118323995968</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="1"/>
+        <v>-113.17315221679473</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="1"/>
+        <v>20.764391157634236</v>
+      </c>
+      <c r="J22" s="24">
+        <f t="shared" si="1"/>
+        <v>2091.5902008518137</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" ref="M22:U22" ca="1" si="2">_xlfn.STDEV.P(M5:M23)</f>
+        <v>903.19125373993563</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>143.13024305394367</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>368.54465836268383</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>106.4061792454192</v>
+      </c>
+      <c r="Q22" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>824.47722805632259</v>
+      </c>
+      <c r="R22" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>269.00231654570388</v>
+      </c>
+      <c r="S22" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>413.27257738560758</v>
+      </c>
+      <c r="T22" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>328.38731012326684</v>
+      </c>
+      <c r="U22" s="24">
+        <f t="shared" ca="1" si="2"/>
+        <v>423.98299115702901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" ref="B23:J23" si="3">_xlfn.STDEV.P(B3:B21)</f>
+        <v>905.85064001097976</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="3"/>
+        <v>145.90276167122587</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="3"/>
+        <v>346.79409427858849</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="3"/>
+        <v>119.3766559327145</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="3"/>
+        <v>1084.7679213880062</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="3"/>
+        <v>291.89597006858372</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="3"/>
+        <v>390.33862717397466</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="3"/>
+        <v>343.80664578723901</v>
+      </c>
+      <c r="J23" s="24">
+        <f t="shared" si="3"/>
+        <v>416.00308928374562</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="5">
+        <f ca="1">M22/M21</f>
         <v>0.16864376533211753</v>
       </c>
-      <c r="N21" s="5">
-        <f t="shared" ref="N21:U21" ca="1" si="2">N20/N19</f>
+      <c r="N23" s="5">
+        <f t="shared" ref="N23:U23" ca="1" si="4">N22/N21</f>
         <v>0.71787870418018218</v>
       </c>
-      <c r="O21" s="5">
-        <f t="shared" ca="1" si="2"/>
+      <c r="O23" s="5">
+        <f t="shared" ca="1" si="4"/>
         <v>7.6777583616699543</v>
       </c>
-      <c r="P21" s="5">
-        <f t="shared" ca="1" si="2"/>
+      <c r="P23" s="5">
+        <f t="shared" ca="1" si="4"/>
         <v>0.47877854159082411</v>
       </c>
-      <c r="Q21" s="5">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Q23" s="5">
+        <f t="shared" ca="1" si="4"/>
         <v>0.158627891400515</v>
       </c>
-      <c r="R21" s="6">
-        <f t="shared" ca="1" si="2"/>
+      <c r="R23" s="6">
+        <f t="shared" ca="1" si="4"/>
         <v>1.867178002428171</v>
       </c>
-      <c r="S21" s="5">
-        <f t="shared" ca="1" si="2"/>
+      <c r="S23" s="5">
+        <f t="shared" ca="1" si="4"/>
         <v>-3.0860111940630714</v>
       </c>
-      <c r="T21" s="5">
-        <f t="shared" ca="1" si="2"/>
+      <c r="T23" s="5">
+        <f t="shared" ca="1" si="4"/>
         <v>-12.297797720623157</v>
       </c>
-      <c r="U21" s="5">
-        <f t="shared" ca="1" si="2"/>
+      <c r="U23" s="5">
+        <f t="shared" ca="1" si="4"/>
         <v>0.20003875852265562</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="13">
-        <f t="shared" ref="B22:J22" si="3">AVERAGEA(B3:B21)</f>
-        <v>5234.6948310069092</v>
-      </c>
-      <c r="C22" s="4">
-        <f t="shared" si="3"/>
-        <v>178.59891568319722</v>
-      </c>
-      <c r="D22" s="4">
-        <f t="shared" si="3"/>
-        <v>59.152438708214504</v>
-      </c>
-      <c r="E22" s="4">
-        <f t="shared" si="3"/>
-        <v>198.39060014556333</v>
-      </c>
-      <c r="F22" s="4">
-        <f t="shared" si="3"/>
-        <v>5323.188821003977</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" si="3"/>
-        <v>186.44118323995968</v>
-      </c>
-      <c r="H22" s="4">
-        <f t="shared" si="3"/>
-        <v>-113.17315221679473</v>
-      </c>
-      <c r="I22" s="4">
-        <f t="shared" si="3"/>
-        <v>20.764391157634236</v>
-      </c>
-      <c r="J22" s="4">
-        <f t="shared" si="3"/>
-        <v>2091.5902008518137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
+    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="13">
-        <f t="shared" ref="B23:J23" si="4">_xlfn.STDEV.P(B3:B21)</f>
-        <v>905.85064001097976</v>
-      </c>
-      <c r="C23" s="4">
-        <f t="shared" si="4"/>
-        <v>145.90276167122587</v>
-      </c>
-      <c r="D23" s="4">
-        <f t="shared" si="4"/>
-        <v>346.79409427858849</v>
-      </c>
-      <c r="E23" s="4">
-        <f t="shared" si="4"/>
-        <v>119.3766559327145</v>
-      </c>
-      <c r="F23" s="4">
-        <f t="shared" si="4"/>
-        <v>1084.7679213880062</v>
-      </c>
-      <c r="G23" s="4">
-        <f t="shared" si="4"/>
-        <v>291.89597006858372</v>
-      </c>
-      <c r="H23" s="4">
-        <f t="shared" si="4"/>
-        <v>390.33862717397466</v>
-      </c>
-      <c r="I23" s="4">
-        <f t="shared" si="4"/>
-        <v>343.80664578723901</v>
-      </c>
-      <c r="J23" s="4">
-        <f t="shared" si="4"/>
-        <v>416.00308928374562</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="14">
+      <c r="B24" s="5">
         <f>B23/B22</f>
         <v>0.17304745916520536</v>
       </c>
@@ -12365,7 +12603,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="M1:U1"/>
+    <mergeCell ref="M3:U3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B24:J24">
@@ -12388,7 +12626,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M21:U21">
+  <conditionalFormatting sqref="M23:U23">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
